--- a/all.xlsx
+++ b/all.xlsx
@@ -1295,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H92" sqref="B80:H92"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3217,6 +3217,12 @@
       <c r="H78" s="12" t="str">
         <f t="shared" si="1"/>
         <v>[详情](res/ykq/19.jpg)</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <f>147500-SUM(C2:C78)</f>
+        <v>51981.5</v>
       </c>
     </row>
   </sheetData>
